--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб5_Гордов_В.Т..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб5_Гордов_В.Т..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Ввод данных" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,17 @@
     <sheet name="Сотрудники" sheetId="3" r:id="rId3"/>
     <sheet name="Фильтры 3" sheetId="6" r:id="rId4"/>
     <sheet name="Сортировка" sheetId="10" r:id="rId5"/>
-    <sheet name="Лист12" sheetId="12" r:id="rId6"/>
-    <sheet name="Сортировка 2" sheetId="11" r:id="rId7"/>
+    <sheet name="Сортировка 2" sheetId="11" r:id="rId6"/>
+    <sheet name="Сортировка 3" sheetId="13" r:id="rId7"/>
     <sheet name="Фильтры" sheetId="4" r:id="rId8"/>
+    <sheet name="Итоги 1" sheetId="14" r:id="rId9"/>
+    <sheet name="Итоги 2" sheetId="16" r:id="rId10"/>
+    <sheet name="Д-функ" sheetId="19" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Итоги 1'!$A$1:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$A$1:$G$16</definedName>
+    <definedName name="База">'Д-функ'!$A$1:$G$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="102">
   <si>
     <t>Фамилия</t>
   </si>
@@ -301,6 +306,45 @@
   </si>
   <si>
     <t>Дата приёма по возрастанию</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Бухгалтерия Итог</t>
+  </si>
+  <si>
+    <t>ОК Итог</t>
+  </si>
+  <si>
+    <t>Склад Итог</t>
+  </si>
+  <si>
+    <t>Цех №1 Итог</t>
+  </si>
+  <si>
+    <t>Цех №2 Итог</t>
+  </si>
+  <si>
+    <t>Текущий Итог</t>
+  </si>
+  <si>
+    <t>Срочный Итог</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>&gt;20000</t>
+  </si>
+  <si>
+    <t>Счет</t>
+  </si>
+  <si>
+    <t>&lt;=31.12.2003</t>
+  </si>
+  <si>
+    <t>&gt;=01.01.2000</t>
   </si>
 </sst>
 </file>
@@ -310,8 +354,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -414,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -546,12 +590,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -571,9 +639,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,24 +651,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -615,6 +671,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -622,35 +711,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -725,6 +786,34 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -844,11 +933,11 @@
     <tableColumn id="1" name="Фамилия" dataDxfId="7"/>
     <tableColumn id="2" name="Имя" dataDxfId="6"/>
     <tableColumn id="3" name="Отчество" dataDxfId="5"/>
-    <tableColumn id="4" name="Телефон" dataDxfId="0"/>
-    <tableColumn id="5" name="Взнос" dataDxfId="4" dataCellStyle="Денежный"/>
-    <tableColumn id="6" name="Возраст" dataDxfId="3"/>
-    <tableColumn id="7" name="Вид счёта" dataDxfId="2"/>
-    <tableColumn id="8" name="Дата открытия счёта" dataDxfId="1"/>
+    <tableColumn id="4" name="Телефон" dataDxfId="4"/>
+    <tableColumn id="5" name="Взнос" dataDxfId="3" dataCellStyle="Денежный"/>
+    <tableColumn id="6" name="Возраст" dataDxfId="2"/>
+    <tableColumn id="7" name="Вид счёта" dataDxfId="1"/>
+    <tableColumn id="8" name="Дата открытия счёта" dataDxfId="0"/>
     <tableColumn id="9" name="Срок вклада"/>
     <tableColumn id="10" name="Город"/>
   </tableColumns>
@@ -1122,7 +1211,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A2" sqref="A2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,6 +1555,955 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="13">
+        <v>400</v>
+      </c>
+      <c r="F2" s="6">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="43">
+        <v>45323</v>
+      </c>
+      <c r="I2" s="7">
+        <v>3</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13">
+        <f>SUBTOTAL(9,E2:E2)</f>
+        <v>400</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15">
+        <v>300</v>
+      </c>
+      <c r="F4" s="9">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="45">
+        <v>45481</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="15">
+        <f>SUBTOTAL(9,E4:E4)</f>
+        <v>300</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="46"/>
+    </row>
+    <row r="6" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13">
+        <v>400</v>
+      </c>
+      <c r="F6" s="6">
+        <v>88</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="43">
+        <v>45607</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="13">
+        <f>SUBTOTAL(9,E6:E6)</f>
+        <v>400</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15">
+        <v>800</v>
+      </c>
+      <c r="F8" s="9">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="45">
+        <v>45494</v>
+      </c>
+      <c r="I8" s="10">
+        <v>8</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="43">
+        <v>45655</v>
+      </c>
+      <c r="I9" s="7">
+        <v>12</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="13">
+        <f>SUBTOTAL(9,E8:E9)</f>
+        <v>800</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15">
+        <v>200</v>
+      </c>
+      <c r="F11" s="9">
+        <v>21</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="45">
+        <v>45572</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="13">
+        <v>155</v>
+      </c>
+      <c r="F12" s="6">
+        <v>55</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="43">
+        <v>45386</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1200.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="47">
+        <v>45435</v>
+      </c>
+      <c r="I13" s="2">
+        <v>14</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52">
+        <f>SUBTOTAL(9,E11:E13)</f>
+        <v>1555.5</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52">
+        <f>SUBTOTAL(9,E2:E13)</f>
+        <v>3455.5</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Введёно неверное название города" promptTitle="Подсказка" prompt="Укажите город из списка: Москва, Новороссийск, Екатеринбург, Омск, Красноярск." sqref="J2 J4 J6 J8:J9 J11:J13">
+      <formula1>"Москва, Новороссийск,Екатеринбург,Омск,Красноярск"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Срок вклада не может быть меньше 2 лет" promptTitle="Подсказка" prompt="Введите срок вклада" sqref="I2 I4 I6 I8:I9 I11:I13">
+      <formula1>2</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Введённая дата не находится в допустимом диапазоне" promptTitle="Подсказка" prompt="Введите дату с 1 яанваря по 31 декабря текущего года" sqref="H2 H4 H6 H8:H9 H11:H13">
+      <formula1>45292</formula1>
+      <formula2>45657</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Номер телефона должен быть длиной в 11 символов" promptTitle="Подсказка" prompt="Введите номер телефона вкладчика" sqref="D2 D4 D6 D8:D9 D11:D13">
+      <formula1>11</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Возраст вкладчика должен быть от 18 и до 100" promptTitle="Подсказка" prompt="Укажите возраст вкладчика" sqref="F2 F4 F6 F8:F9 F11:F13">
+      <formula1>18</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Вам нужно выбрать тип счёта из предложенных" promptTitle="Подсказка" prompt="Выберите тип счёта вкладчика">
+          <x14:formula1>
+            <xm:f>'Список значений'!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2 G4 G6 G8:G9 G11:G13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="25">
+        <v>30375</v>
+      </c>
+      <c r="E2" s="25">
+        <v>324500</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="21">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E3" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="21">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="25">
+        <v>16250</v>
+      </c>
+      <c r="E4" s="25">
+        <v>275000</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="21">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="25">
+        <v>18083</v>
+      </c>
+      <c r="E5" s="25">
+        <v>296996</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="21">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="E6" s="25">
+        <v>385446</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="21">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E7" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="21">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E8" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="21">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E9" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="21">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E10" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="21">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E11" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="21">
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E12" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="21">
+        <v>37169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E13" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="21">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E14" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="21">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E15" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="21">
+        <v>37817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E16" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="21">
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="20">
+        <f>DSUM(База,D1,A19:A20)</f>
+        <v>169619.5</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="20">
+        <f>DSUM(База,$E1,D19:D20)</f>
+        <v>976980</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="20">
+        <f>DSUM(База,$E1,F19:F20)</f>
+        <v>840494</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="20">
+        <f>DSUM(База,$E1,H19:H20)</f>
+        <v>660446</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="20">
+        <f>DSUM(База,$E1,J19:J20)</f>
+        <v>797132</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="20">
+        <f>DSUM(База,$E1,L19:L20)</f>
+        <v>812984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="55">
+        <f>DCOUNT(База,G1,A22:B23)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G25" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
@@ -1480,7 +2518,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1505,7 +2543,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="G16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,7 +2938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1930,33 +2968,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="Q1" s="29" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="Q1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -2263,15 +3301,15 @@
       <c r="G7" s="21">
         <v>37169</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -2473,15 +3511,15 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
@@ -2962,24 +4000,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,15 +4018,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -3380,12 +4404,410 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E2" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="21">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E3" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="21">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E4" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="21">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E5" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="21">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="25">
+        <v>16250</v>
+      </c>
+      <c r="E6" s="25">
+        <v>275000</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="21">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="E7" s="25">
+        <v>385446</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="21">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="25">
+        <v>30375</v>
+      </c>
+      <c r="E8" s="25">
+        <v>324500</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="21">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="25">
+        <v>18083</v>
+      </c>
+      <c r="E9" s="25">
+        <v>296996</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="21">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E10" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="21">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E11" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="21">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E12" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="21">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E13" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="21">
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E14" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="21">
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E15" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="21">
+        <v>37169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E16" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="21">
+        <v>37817</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G16">
+    <sortCondition ref="F2:F16"/>
+    <sortCondition ref="G2:G16"/>
+    <sortCondition ref="D2:D16"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G14" sqref="A8:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,15 +4822,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -3526,15 +4948,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -3681,4 +5103,506 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E2" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="21">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E3" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="21">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E4" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="21">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E5" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="21">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="25">
+        <f>SUBTOTAL(9,D2:D5)</f>
+        <v>91415</v>
+      </c>
+      <c r="E6" s="25">
+        <f>SUBTOTAL(9,E2:E5)</f>
+        <v>976980</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="25">
+        <v>16250</v>
+      </c>
+      <c r="E7" s="25">
+        <v>275000</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="21">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="E8" s="25">
+        <v>385446</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="21">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="25">
+        <f>SUBTOTAL(9,D7:D8)</f>
+        <v>43370.5</v>
+      </c>
+      <c r="E9" s="25">
+        <f>SUBTOTAL(9,E7:E8)</f>
+        <v>660446</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="25">
+        <v>30375</v>
+      </c>
+      <c r="E10" s="25">
+        <v>324500</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="21">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="25">
+        <v>18083</v>
+      </c>
+      <c r="E11" s="25">
+        <v>296996</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="21">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E12" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="21">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="25">
+        <f>SUBTOTAL(9,D10:D12)</f>
+        <v>68374.5</v>
+      </c>
+      <c r="E13" s="25">
+        <f>SUBTOTAL(9,E10:E12)</f>
+        <v>840494</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E14" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="21">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E15" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="21">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E16" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="21">
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="25">
+        <f>SUBTOTAL(9,D14:D16)</f>
+        <v>64761</v>
+      </c>
+      <c r="E17" s="25">
+        <f>SUBTOTAL(9,E14:E16)</f>
+        <v>797132</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E18" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="21">
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E19" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="21">
+        <v>37169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E20" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="21">
+        <v>37817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39">
+        <f>SUBTOTAL(9,D18:D20)</f>
+        <v>66082</v>
+      </c>
+      <c r="E21" s="39">
+        <f>SUBTOTAL(9,E18:E20)</f>
+        <v>812984</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39">
+        <f>SUBTOTAL(9,D2:D20)</f>
+        <v>334003</v>
+      </c>
+      <c r="E22" s="39">
+        <f>SUBTOTAL(9,E2:E20)</f>
+        <v>4088036</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="40"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G20">
+    <sortState ref="A2:G16">
+      <sortCondition ref="F1:F16"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:G16">
+    <sortCondition ref="F1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб5_Гордов_В.Т..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб5_Гордов_В.Т..xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Влад\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="1000" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Ввод данных" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <sheet name="Итоги 1" sheetId="14" r:id="rId9"/>
     <sheet name="Итоги 2" sheetId="16" r:id="rId10"/>
     <sheet name="Д-функ" sheetId="19" r:id="rId11"/>
+    <sheet name="Сводн.табл.ДанныеТранзакций" sheetId="21" r:id="rId12"/>
+    <sheet name="Сводн.табл.2." sheetId="23" r:id="rId13"/>
+    <sheet name="Данные свод.табл.2" sheetId="22" r:id="rId14"/>
+    <sheet name="Данные транзакций" sheetId="20" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Итоги 1'!$A$1:$G$20</definedName>
@@ -30,6 +34,10 @@
     <definedName name="База">'Д-функ'!$A$1:$G$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId16"/>
+    <pivotCache cacheId="17" r:id="rId17"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="155">
   <si>
     <t>Фамилия</t>
   </si>
@@ -345,6 +353,165 @@
   </si>
   <si>
     <t>&gt;=01.01.2000</t>
+  </si>
+  <si>
+    <t>&lt;=31.12.2000</t>
+  </si>
+  <si>
+    <t>Средний оклад</t>
+  </si>
+  <si>
+    <t>Средний годовой фонд</t>
+  </si>
+  <si>
+    <t>Максимальный средний оклад</t>
+  </si>
+  <si>
+    <t>Минимальный средний оклад</t>
+  </si>
+  <si>
+    <t>Наибольший годовой фонд</t>
+  </si>
+  <si>
+    <t>Наименьший годовой фонд</t>
+  </si>
+  <si>
+    <t>&gt;=01.01.1999</t>
+  </si>
+  <si>
+    <t>&lt;=31.12.1999</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Открыл</t>
+  </si>
+  <si>
+    <t>Отделение</t>
+  </si>
+  <si>
+    <t>Клиент</t>
+  </si>
+  <si>
+    <t>Сумма счета, руб</t>
+  </si>
+  <si>
+    <t>Уполномоченный</t>
+  </si>
+  <si>
+    <t>Центральное</t>
+  </si>
+  <si>
+    <t>Обычный</t>
+  </si>
+  <si>
+    <t>Депозит</t>
+  </si>
+  <si>
+    <t>Западное</t>
+  </si>
+  <si>
+    <t>Кассир</t>
+  </si>
+  <si>
+    <t>Северное</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Обычны</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>Сумма по полю Сумма счета, руб</t>
+  </si>
+  <si>
+    <t>(Все)</t>
+  </si>
+  <si>
+    <t>Сотрудник</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Год приёма на работу</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>Маркетинг</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>Управлени</t>
+  </si>
+  <si>
+    <t>Управление</t>
+  </si>
+  <si>
+    <t>Маркетин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андреева Любовь Павловна </t>
+  </si>
+  <si>
+    <t>Бершев Федор Григорьевич</t>
+  </si>
+  <si>
+    <t>Буденков Денис Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Васин Петр Семенович </t>
+  </si>
+  <si>
+    <t>Голубицкая Елена Максимовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горбатов Илья Егорович </t>
+  </si>
+  <si>
+    <t>Грицацуева Сара Абрамовна</t>
+  </si>
+  <si>
+    <t>Зайцев Леонид Петрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванкин Иван Иванович </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крылова Анастасия Петровна </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крылова Ирина Валерьевна </t>
+  </si>
+  <si>
+    <t>Ноткин Михаил Максимович</t>
+  </si>
+  <si>
+    <t>Петрова Лариса Федоровна</t>
+  </si>
+  <si>
+    <t>Самойлов Артем Денисович</t>
+  </si>
+  <si>
+    <t>Сирко Карл Петрович</t>
+  </si>
+  <si>
+    <t>Количество по полю Сотрудник</t>
   </si>
 </sst>
 </file>
@@ -619,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -701,9 +868,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -924,6 +1107,506 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Пользователь" refreshedDate="45613.734551273148" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F16" sheet="Данные транзакций"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Дата" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2005-09-01T00:00:00" maxDate="2005-09-03T00:00:00" count="2">
+        <d v="2005-09-01T00:00:00"/>
+        <d v="2005-09-02T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Сумма счета, руб" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4000" maxValue="400000"/>
+    </cacheField>
+    <cacheField name="Тип" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Текущий"/>
+        <s v="Депозит"/>
+        <s v="Срочный"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Открыл" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Уполномоченный"/>
+        <s v="Кассир"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Отделение" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Центральное"/>
+        <s v="Западное"/>
+        <s v="Северное"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Клиент" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Обычный"/>
+        <s v="VIP"/>
+        <s v="Обычны"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Пользователь" refreshedDate="45613.772770370371" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D16" sheet="Данные свод.табл.2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Сотрудник" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Год приёма на работу" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="2005" count="6">
+        <n v="2005"/>
+        <n v="2001"/>
+        <n v="2002"/>
+        <n v="2004"/>
+        <n v="2000"/>
+        <n v="2003"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Пол" numFmtId="0">
+      <sharedItems count="2">
+        <s v="ж"/>
+        <s v="м"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Отдел" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Маркетинг"/>
+        <s v="Управлени"/>
+        <s v="Склад"/>
+        <s v="Управление"/>
+        <s v="Маркетин"/>
+        <s v="Бухгалтерия"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
+  <r>
+    <x v="0"/>
+    <n v="5000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="120000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="90000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="50000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="400000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="14000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="100000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="50000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="300000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
+  <r>
+    <s v="Андреева Любовь Павловна "/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Бершев Федор Григорьевич"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Буденков Денис Алексеевич"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Васин Петр Семенович "/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Голубицкая Елена Максимовна"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Горбатов Илья Егорович "/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Грицацуева Сара Абрамовна"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Зайцев Леонид Петрович"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Иванкин Иван Иванович "/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Крылова Анастасия Петровна "/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Крылова Ирина Валерьевна "/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ноткин Михаил Максимович"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Петрова Лариса Федоровна"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Самойлов Артем Денисович"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Сирко Карл Петрович"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" numFmtId="14" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="5" item="0" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Сумма счета, руб" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Количество по полю Сотрудник" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1210,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1903,7 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
@@ -2005,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,13 +2700,19 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2391,45 +3080,45 @@
         <v>71750</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="E19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="F19" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="H19" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="I19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="J19" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="K19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="L19" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="M19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="N19" s="58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>98</v>
       </c>
@@ -2437,67 +3126,1150 @@
         <f>DSUM(База,D1,A19:A20)</f>
         <v>169619.5</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="20">
-        <f>DSUM(База,$E1,D19:D20)</f>
+      <c r="F20" s="20">
+        <f>DSUM(База,$E1,E19:E20)</f>
         <v>976980</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="G20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="20">
-        <f>DSUM(База,$E1,F19:F20)</f>
+      <c r="H20" s="20">
+        <f>DSUM(База,$E1,G19:G20)</f>
         <v>840494</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="I20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="20">
-        <f>DSUM(База,$E1,H19:H20)</f>
+      <c r="J20" s="20">
+        <f>DSUM(База,$E1,I19:I20)</f>
         <v>660446</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="K20" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="20">
-        <f>DSUM(База,$E1,J19:J20)</f>
+      <c r="L20" s="20">
+        <f>DSUM(База,$E1,K19:K20)</f>
         <v>797132</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="M20" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="20">
-        <f>DSUM(База,$E1,L19:L20)</f>
+      <c r="N20" s="20">
+        <f>DSUM(База,$E1,M19:M20)</f>
         <v>812984</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="55" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="56">
         <f>DCOUNT(База,G1,A22:B23)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G25" s="23"/>
+      <c r="E23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="20">
+        <f>DAVERAGE(База,$D1,E22:E23)</f>
+        <v>22853.75</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="20">
+        <f>DAVERAGE(База,$D1,G22:G23)</f>
+        <v>22791.5</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="20">
+        <f>DAVERAGE(База,$D1,I22:I23)</f>
+        <v>21685.25</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="20">
+        <f>DAVERAGE(База,$D1,K22:K23)</f>
+        <v>21587</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="20">
+        <f>DAVERAGE(База,$D1,M22:M23)</f>
+        <v>22027.333333333332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="E25" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E26" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="20">
+        <f>DAVERAGE(База,E1,E25:F26)</f>
+        <v>294796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="E28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S28" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="20">
+        <f>DMAX(База,$D1,E28:E29)</f>
+        <v>27166</v>
+      </c>
+      <c r="G29" s="20">
+        <f>DMIN(База,$D1,E28:E29)</f>
+        <v>18541</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="20">
+        <f>DMAX(База,$D1,H28:H29)</f>
+        <v>30375</v>
+      </c>
+      <c r="J29" s="20">
+        <f>DMIN(База,$D1,H28:H29)</f>
+        <v>18083</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="20">
+        <f>DMAX(База,$D1,K28:K29)</f>
+        <v>27120.5</v>
+      </c>
+      <c r="M29" s="20">
+        <f>DMIN(База,$D1,K28:K29)</f>
+        <v>16250</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="20">
+        <f>DMAX(База,$D1,N28:N29)</f>
+        <v>28450</v>
+      </c>
+      <c r="P29" s="20">
+        <f>DMIN(База,$D1,N28:N29)</f>
+        <v>16852.5</v>
+      </c>
+      <c r="Q29" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="R29" s="20">
+        <f>DMAX(База,$D1,Q28:Q29)</f>
+        <v>29800</v>
+      </c>
+      <c r="S29" s="20">
+        <f>DMIN(База,$D1,Q28:Q29)</f>
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="E31" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E32" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="20">
+        <f>DMAX(База,$E1,$E31:$F32)</f>
+        <v>385446</v>
+      </c>
+      <c r="H32" s="20">
+        <f>DMIN(База,$E1,$E31:$F32)</f>
+        <v>275000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="62">
+        <v>38597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="61">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61">
+        <v>700000</v>
+      </c>
+      <c r="D8" s="61">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="61">
+        <v>100000</v>
+      </c>
+      <c r="C9" s="61">
+        <v>700000</v>
+      </c>
+      <c r="D9" s="61">
+        <v>800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="61">
+        <v>1</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61">
+        <v>1</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61">
+        <v>1</v>
+      </c>
+      <c r="E6" s="61">
+        <v>1</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="61">
+        <v>2</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61">
+        <v>1</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61">
+        <v>1</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61">
+        <v>1</v>
+      </c>
+      <c r="G9" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="61">
+        <v>3</v>
+      </c>
+      <c r="C10" s="61">
+        <v>1</v>
+      </c>
+      <c r="D10" s="61">
+        <v>3</v>
+      </c>
+      <c r="E10" s="61">
+        <v>1</v>
+      </c>
+      <c r="F10" s="61">
+        <v>1</v>
+      </c>
+      <c r="G10" s="61">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="A1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2005</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2005</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="20">
+        <v>2005</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2002</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2004</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="20">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2004</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2003</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="20">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="59">
+        <v>38596</v>
+      </c>
+      <c r="B2" s="20">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
+        <v>38596</v>
+      </c>
+      <c r="B3" s="20">
+        <v>15000</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="59">
+        <v>38596</v>
+      </c>
+      <c r="B4" s="20">
+        <v>15000</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
+        <v>38596</v>
+      </c>
+      <c r="B5" s="20">
+        <v>120000</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="59">
+        <v>38596</v>
+      </c>
+      <c r="B6" s="20">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
+        <v>38596</v>
+      </c>
+      <c r="B7" s="20">
+        <v>7000</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <v>38596</v>
+      </c>
+      <c r="B8" s="20">
+        <v>90000</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
+        <v>38597</v>
+      </c>
+      <c r="B9" s="20">
+        <v>50000</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
+        <v>38597</v>
+      </c>
+      <c r="B10" s="20">
+        <v>400000</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="59">
+        <v>38597</v>
+      </c>
+      <c r="B11" s="20">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="59">
+        <v>38597</v>
+      </c>
+      <c r="B12" s="20">
+        <v>14000</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="59">
+        <v>38597</v>
+      </c>
+      <c r="B13" s="20">
+        <v>100000</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="59">
+        <v>38597</v>
+      </c>
+      <c r="B14" s="20">
+        <v>4000</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="59">
+        <v>38597</v>
+      </c>
+      <c r="B15" s="20">
+        <v>50000</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="59">
+        <v>38597</v>
+      </c>
+      <c r="B16" s="20">
+        <v>300000</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
